--- a/3/5/2/1/comercio exterior - en US$ 2013 a 2021 - Mensual.xlsx
+++ b/3/5/2/1/comercio exterior - en US$ 2013 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Serie</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -698,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2965,6 +2968,29 @@
         <v>564.9400000000001</v>
       </c>
     </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104">
+        <v>1.51</v>
+      </c>
+      <c r="C104">
+        <v>1115.61</v>
+      </c>
+      <c r="D104">
+        <v>1.14</v>
+      </c>
+      <c r="E104">
+        <v>599.92</v>
+      </c>
+      <c r="F104">
+        <v>1.93</v>
+      </c>
+      <c r="G104">
+        <v>515.6900000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/2/1/comercio exterior - en US$ 2013 a 2021 - Mensual.xlsx
+++ b/3/5/2/1/comercio exterior - en US$ 2013 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Serie</t>
   </si>
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -701,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2991,6 +2994,29 @@
         <v>515.6900000000001</v>
       </c>
     </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105">
+        <v>1.65</v>
+      </c>
+      <c r="C105">
+        <v>999.13</v>
+      </c>
+      <c r="D105">
+        <v>1.19</v>
+      </c>
+      <c r="E105">
+        <v>519.35</v>
+      </c>
+      <c r="F105">
+        <v>2.15</v>
+      </c>
+      <c r="G105">
+        <v>479.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/2/1/comercio exterior - en US$ 2013 a 2021 - Mensual.xlsx
+++ b/3/5/2/1/comercio exterior - en US$ 2013 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Serie</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -704,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3017,6 +3020,29 @@
         <v>479.78</v>
       </c>
     </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106">
+        <v>1.64</v>
+      </c>
+      <c r="C106">
+        <v>1135.26</v>
+      </c>
+      <c r="D106">
+        <v>1.21</v>
+      </c>
+      <c r="E106">
+        <v>576.79</v>
+      </c>
+      <c r="F106">
+        <v>2.08</v>
+      </c>
+      <c r="G106">
+        <v>558.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/2/1/comercio exterior - en US$ 2013 a 2021 - Mensual.xlsx
+++ b/3/5/2/1/comercio exterior - en US$ 2013 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Serie</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -707,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3043,6 +3046,29 @@
         <v>558.47</v>
       </c>
     </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107">
+        <v>1.6</v>
+      </c>
+      <c r="C107">
+        <v>1182.86</v>
+      </c>
+      <c r="D107">
+        <v>1.22</v>
+      </c>
+      <c r="E107">
+        <v>721.33</v>
+      </c>
+      <c r="F107">
+        <v>2.19</v>
+      </c>
+      <c r="G107">
+        <v>461.53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
